--- a/ehdidata_2007to2022_published20250207_description.xlsx
+++ b/ehdidata_2007to2022_published20250207_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitan\Box\CPHSS\EHDI Seeser\Data\website_ready_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0A579-929D-41B9-B838-72B16970C331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E571FB-A8F3-419F-B576-CC90E473728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="-108" windowWidth="22020" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1272" yWindow="0" windowWidth="13500" windowHeight="12876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_description" sheetId="1" r:id="rId1"/>
@@ -811,9 +811,6 @@
     <t>This age-stratified metric will help policy makers identify diagnoses of no hearing loss made before 3 months of age as the program aims.</t>
   </si>
   <si>
-    <t>FormulaText</t>
-  </si>
-  <si>
     <t>It was calculated using the formula HL / Tscr * 1000.</t>
   </si>
   <si>
@@ -923,13 +920,16 @@
   </si>
   <si>
     <t>Data used as reported to CDC. It should be equivalent to (NPOS + ReInDia + ReInNoOut) or (HL + NHL + LTF + CLEAR) or (Diagnosed + LTF + CLEAR).</t>
+  </si>
+  <si>
+    <t>Formula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -963,12 +963,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Source Sans Pro"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1018,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1033,9 +1027,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1059,16 +1050,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1268,7 +1256,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Variable Abbreviation" dataDxfId="3" dataCellStyle="Heading 3"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Definition" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Decision Maker Takeaway" dataDxfId="1" dataCellStyle="Heading 3"/>
-    <tableColumn id="9" xr3:uid="{D24A6EAA-80CC-4792-BAE3-486205319F6D}" name="FormulaText" dataDxfId="0" dataCellStyle="Heading 3"/>
+    <tableColumn id="9" xr3:uid="{D24A6EAA-80CC-4792-BAE3-486205319F6D}" name="Formula" dataDxfId="0" dataCellStyle="Heading 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1574,24 +1562,24 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="63.33203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="56" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="32.88671875" style="11"/>
+    <col min="1" max="1" width="23.5546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="63.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="56" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="32.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1604,18 +1592,18 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1623,14 +1611,14 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>206</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1638,8 +1626,8 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1652,11 +1640,11 @@
         <v>122</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1669,11 +1657,11 @@
         <v>211</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1686,11 +1674,11 @@
         <v>191</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1703,11 +1691,11 @@
         <v>192</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="10" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1720,11 +1708,11 @@
         <v>193</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1737,11 +1725,11 @@
         <v>123</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1754,11 +1742,11 @@
         <v>194</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1771,11 +1759,11 @@
         <v>195</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1788,11 +1776,11 @@
         <v>196</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1805,11 +1793,11 @@
         <v>197</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1822,11 +1810,11 @@
         <v>215</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>216</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1839,11 +1827,11 @@
         <v>219</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>220</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1856,11 +1844,11 @@
         <v>223</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>224</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1873,11 +1861,11 @@
         <v>227</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1890,11 +1878,11 @@
         <v>125</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -1907,11 +1895,11 @@
         <v>124</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1924,11 +1912,11 @@
         <v>126</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1941,11 +1929,11 @@
         <v>127</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1958,11 +1946,11 @@
         <v>128</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -1975,11 +1963,11 @@
         <v>131</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1992,11 +1980,11 @@
         <v>62</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2009,62 +1997,62 @@
         <v>129</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>168</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>130</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>169</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>110</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>170</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>111</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
         <v>228</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2077,283 +2065,283 @@
         <v>231</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>232</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>234</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>235</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="10" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>133</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>134</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="10" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="9" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>198</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>199</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>200</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>135</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>136</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>139</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>107</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="10" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2366,75 +2354,75 @@
         <v>106</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>181</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="10" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -2444,14 +2432,14 @@
       <c r="B51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>201</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2461,14 +2449,14 @@
       <c r="B52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>202</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2478,14 +2466,14 @@
       <c r="B53" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>239</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2495,208 +2483,208 @@
       <c r="B54" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>243</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="E55" s="13" t="s">
-        <v>294</v>
+      <c r="E55" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="13" t="s">
-        <v>294</v>
+      <c r="E56" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E57" s="13" t="s">
-        <v>294</v>
+      <c r="E57" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>294</v>
+      <c r="E58" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E59" s="13" t="s">
-        <v>294</v>
+      <c r="E59" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E60" s="13" t="s">
-        <v>294</v>
+      <c r="E60" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E61" s="13" t="s">
-        <v>294</v>
+      <c r="E61" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E62" s="13" t="s">
-        <v>294</v>
+      <c r="E62" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>294</v>
+      <c r="E63" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="15" t="s">
+      <c r="D64" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E64" s="17" t="s">
-        <v>294</v>
+      <c r="E64" s="15" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D65" s="15" t="s">
+      <c r="D65" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="E65" s="17" t="s">
-        <v>294</v>
+      <c r="E65" s="15" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:D54">
     <sortCondition ref="A54"/>
   </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/ehdidata_2007to2022_published20250207_description.xlsx
+++ b/ehdidata_2007to2022_published20250207_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaitan\Box\CPHSS\EHDI Seeser\Data\website_ready_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E571FB-A8F3-419F-B576-CC90E473728F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AA5C07-1B08-489A-91AA-3F926FDE3C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1272" yWindow="0" windowWidth="13500" windowHeight="12876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12132" yWindow="0" windowWidth="10908" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_description" sheetId="1" r:id="rId1"/>
@@ -190,9 +190,6 @@
     <t>CLEARr</t>
   </si>
   <si>
-    <t>PerReDirDiag</t>
-  </si>
-  <si>
     <t>EI</t>
   </si>
   <si>
@@ -262,9 +259,6 @@
     <t>Diagnosed Hearing Loss (%)</t>
   </si>
   <si>
-    <t>Not Passed Inpatient Screening</t>
-  </si>
-  <si>
     <t>Total Outpatient Screened</t>
   </si>
   <si>
@@ -307,9 +301,6 @@
     <t>Referred to Outpatient Screening (%)</t>
   </si>
   <si>
-    <t>Referred Direct to Diagnostics (%)</t>
-  </si>
-  <si>
     <t>Hearing Loss Diagnosed Before 3 Months of Age (%)</t>
   </si>
   <si>
@@ -319,9 +310,6 @@
     <t>Enrolled in EI Before 6 Months of Age (%)</t>
   </si>
   <si>
-    <t>Referred to Outpatient Screening</t>
-  </si>
-  <si>
     <t>Referred Initial/Straight to Diagnostics Evaluation</t>
   </si>
   <si>
@@ -472,9 +460,6 @@
     <t>Cleared Out of System Rate</t>
   </si>
   <si>
-    <t>Cleared Out of System</t>
-  </si>
-  <si>
     <t>Total Enrolled in EI (Part C &amp; Non-Part C)</t>
   </si>
   <si>
@@ -493,27 +478,6 @@
     <t>Total Enrolled in EI Before 6 Months of Age (Non-Part C)</t>
   </si>
   <si>
-    <t>Prevalence of permanent hearing loss</t>
-  </si>
-  <si>
-    <t>Rate of babies who did not pass their final/most recent screening (inpatient/outpatient) per 1000 screened</t>
-  </si>
-  <si>
-    <t>Rate of babies who were lost to follow-up after not passing their screening, and documented as one of three reasons (parents/family contacted but unresponsive, unable to contact or unknown status) per 1000 screened</t>
-  </si>
-  <si>
-    <t>Rate of babies cleared out of the EHDI system after not passing last/final screening (did not undergo diagnostics but unaccounted for as lost to follow-up) per 1000 screened</t>
-  </si>
-  <si>
-    <t>Rate of diagnosis (no hearing loss, transient hearing loss, or permanent hearing loss) per 1000 screened</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate of enrollment in early intervention (Part C &amp; Non-Part C) per 1000 screened </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rate of enrollment in early intervention before 6 months of age (Part C &amp; Non-Part C) per 1000 screened </t>
-  </si>
-  <si>
     <t>Percentage of babies who entered the EHDI program (had inpatient and/or outpatient screening) out of total births reported to the EHDI Program</t>
   </si>
   <si>
@@ -667,9 +631,6 @@
     <t>Tscr1r</t>
   </si>
   <si>
-    <t>Rate of babies screened before 1 month of age per 1000 screened</t>
-  </si>
-  <si>
     <t>This metric identifies whether the system is able to screen majority of babies before 1 month of age as it intends.</t>
   </si>
   <si>
@@ -733,9 +694,6 @@
     <t>This metric tracks the total number of screened infants before 1 month of age and provides insights into program reach and effectiveness, where a goal of EHDI is to have all infants screened for hearing loss before 1 month.</t>
   </si>
   <si>
-    <t>Passed Inpatient Screening</t>
-  </si>
-  <si>
     <t>PIS</t>
   </si>
   <si>
@@ -923,6 +881,48 @@
   </si>
   <si>
     <t>Formula</t>
+  </si>
+  <si>
+    <t>Referred Straight to Diagnostics (%)</t>
+  </si>
+  <si>
+    <t>Total Passed Inpatient Screening</t>
+  </si>
+  <si>
+    <t>Total Not Passed Inpatient Screening</t>
+  </si>
+  <si>
+    <t>Total Referred to Outpatient Screening</t>
+  </si>
+  <si>
+    <t>Total Cleared Out of System</t>
+  </si>
+  <si>
+    <t>Babies diagnosed with permanent hearing loss per 1,000 screened</t>
+  </si>
+  <si>
+    <t>Rate of babies screened before 1 month of age per 1,000 screened</t>
+  </si>
+  <si>
+    <t>Rate of babies who did not pass their final/most recent screening (inpatient/outpatient) per 1,000 screened</t>
+  </si>
+  <si>
+    <t>Rate of babies who were lost to follow-up after not passing their screening, and documented as one of three reasons (parents/family contacted but unresponsive, unable to contact or unknown status) per 1,000 screened</t>
+  </si>
+  <si>
+    <t>Rate of babies cleared out of the EHDI system after not passing last/final screening (did not undergo diagnostics but unaccounted for as lost to follow-up) per 1,000 screened</t>
+  </si>
+  <si>
+    <t>Rate of diagnosis (no hearing loss, transient hearing loss, or permanent hearing loss) per 1,000 screened</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of enrollment in early intervention (Part C &amp; Non-Part C) per 1,000 screened </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate of enrollment in early intervention before 6 months of age (Part C &amp; Non-Part C) per 1,000 screened </t>
+  </si>
+  <si>
+    <t>PerReferStDia</t>
   </si>
 </sst>
 </file>
@@ -1561,11 +1561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1593,7 +1593,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -1604,10 +1604,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="E2" s="1"/>
     </row>
@@ -1619,351 +1619,351 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>287</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>289</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>290</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>155</v>
+        <v>291</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>293</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>90</v>
+        <v>282</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>295</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -1974,302 +1974,302 @@
         <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>75</v>
+        <v>284</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="9" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>94</v>
+        <v>285</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="9" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="9" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="9" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2280,13 +2280,13 @@
         <v>7</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2297,13 +2297,13 @@
         <v>9</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2314,13 +2314,13 @@
         <v>13</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -2331,13 +2331,13 @@
         <v>15</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="9" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -2348,336 +2348,336 @@
         <v>11</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="E58" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
